--- a/winium_modularizado/DataProvider/TestData3.xlsx
+++ b/winium_modularizado/DataProvider/TestData3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roy\eclipse-workspace\winium_modularizado\DataProvider\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roy\Proyectos Git\winium_modularizado\winium_modularizado\DataProvider\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
   <si>
     <t>User</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>rrivas</t>
+  </si>
+  <si>
+    <t>prueba de fallo</t>
   </si>
 </sst>
 </file>
@@ -348,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -366,10 +369,10 @@
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -393,6 +396,14 @@
         <v>2</v>
       </c>
       <c r="B5" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
         <v>123</v>
       </c>
     </row>
